--- a/鳳梨各縣市生產成本.xlsx
+++ b/鳳梨各縣市生產成本.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>種苗費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肥料費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雜費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>變動成本小計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,78 +53,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>農機具維護費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">南投縣 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉義縣 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">台南市 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">高雄市 </t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產量(公斤/公傾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本(元/公傾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縣市代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗收益(元/公傾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營收(元/公傾)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近三年北農平均批發價格(元/公斤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種苗費/成園費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人(人工+自家工)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雜費(包工)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>農業設施費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>農機具費(依照TGAP1公頃田區首次需購入中耕機、除草機、噴藥機、搬運車)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>固定成本小計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農機具費(首次)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農機具維護費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">南投縣 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">嘉義縣 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">台南市 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高雄市 </t>
-  </si>
-  <si>
-    <t>屏東縣</t>
-  </si>
-  <si>
-    <t>縣市代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近三年平均價格(元/公斤)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產量(公斤/公傾)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本(元/公傾)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>營收(元/公傾)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淨利(元/公傾)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -472,28 +472,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -776,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -802,221 +794,426 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>20</v>
+      <c r="B1" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>21</v>
+      <c r="B2" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24">
+        <v>9</v>
+      </c>
+      <c r="D2" s="21">
+        <f>E2-H2</f>
+        <v>205439</v>
+      </c>
+      <c r="E2" s="22">
+        <v>953982</v>
+      </c>
+      <c r="F2" s="22">
         <v>15.05</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="17"/>
+      <c r="G2" s="22">
+        <v>48040</v>
+      </c>
+      <c r="H2" s="23">
+        <f>P2+U2</f>
+        <v>748543</v>
+      </c>
+      <c r="I2" s="2">
+        <v>112910</v>
+      </c>
+      <c r="J2" s="3">
+        <v>61256</v>
+      </c>
+      <c r="K2" s="3">
+        <v>17920</v>
+      </c>
+      <c r="L2" s="3">
+        <v>18551</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4202</v>
+      </c>
+      <c r="N2" s="3">
+        <f>175085+151843</f>
+        <v>326928</v>
+      </c>
+      <c r="O2" s="3">
+        <v>30910</v>
+      </c>
+      <c r="P2" s="17">
+        <f>SUM(I2:O2)</f>
+        <v>572677</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>51680</v>
+      </c>
+      <c r="R2" s="3">
+        <f>1979*10+2396</f>
+        <v>22186</v>
+      </c>
+      <c r="S2" s="31">
+        <v>100000</v>
+      </c>
+      <c r="T2" s="3">
+        <f>S2*0.02</f>
+        <v>2000</v>
+      </c>
+      <c r="U2" s="17">
+        <f>SUM(Q2:T2)</f>
+        <v>175866</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>22</v>
+      <c r="B3" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" ref="D3:D6" si="0">E3-H3</f>
+        <v>371368</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1140673</v>
+      </c>
+      <c r="F3" s="24">
         <v>20.43</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="18"/>
+      <c r="G3" s="24">
+        <v>50447</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" ref="H3:H6" si="1">P3+U3</f>
+        <v>769305</v>
+      </c>
+      <c r="I3" s="5">
+        <v>125182</v>
+      </c>
+      <c r="J3" s="1">
+        <v>64401</v>
+      </c>
+      <c r="K3" s="1">
+        <v>20929</v>
+      </c>
+      <c r="L3" s="1">
+        <v>19831</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4048</v>
+      </c>
+      <c r="N3" s="1">
+        <f>178544+145411</f>
+        <v>323955</v>
+      </c>
+      <c r="O3" s="1">
+        <v>31431</v>
+      </c>
+      <c r="P3" s="17">
+        <f t="shared" ref="P3:P6" si="2">SUM(I3:O3)</f>
+        <v>589777</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>55383</v>
+      </c>
+      <c r="R3" s="1">
+        <f>1954*10+2605</f>
+        <v>22145</v>
+      </c>
+      <c r="S3" s="31">
+        <v>100000</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T6" si="3">S3*0.02</f>
+        <v>2000</v>
+      </c>
+      <c r="U3" s="17">
+        <f t="shared" ref="U3:U6" si="4">SUM(Q3:T3)</f>
+        <v>179528</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>23</v>
+      <c r="B4" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+        <v>11</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>543186</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1148565</v>
+      </c>
+      <c r="F4" s="24">
         <v>18.37</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="18"/>
+      <c r="G4" s="24">
+        <v>48933</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>605379</v>
+      </c>
+      <c r="I4" s="5">
+        <v>111467</v>
+      </c>
+      <c r="J4" s="1">
+        <v>57740</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18913</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18491</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4029</v>
+      </c>
+      <c r="N4" s="1">
+        <f>175472+12497</f>
+        <v>187969</v>
+      </c>
+      <c r="O4" s="1">
+        <v>31878</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" si="2"/>
+        <v>430487</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>49103</v>
+      </c>
+      <c r="R4" s="1">
+        <f>2099*10+2799</f>
+        <v>23789</v>
+      </c>
+      <c r="S4" s="31">
+        <v>100000</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" si="4"/>
+        <v>174892</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>24</v>
+      <c r="B5" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>375307</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1109646</v>
+      </c>
+      <c r="F5" s="24">
         <v>18.920000000000002</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="18"/>
+      <c r="G5" s="24">
+        <v>48709</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>734339</v>
+      </c>
+      <c r="I5" s="5">
+        <v>111171</v>
+      </c>
+      <c r="J5" s="1">
+        <v>62579</v>
+      </c>
+      <c r="K5" s="1">
+        <v>19774</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20717</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4271</v>
+      </c>
+      <c r="N5" s="1">
+        <f>179496+129537</f>
+        <v>309033</v>
+      </c>
+      <c r="O5" s="1">
+        <v>33474</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="2"/>
+        <v>561019</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>46217</v>
+      </c>
+      <c r="R5" s="1">
+        <f>2215*10+2953</f>
+        <v>25103</v>
+      </c>
+      <c r="S5" s="31">
+        <v>100000</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="4"/>
+        <v>173320</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>25</v>
+      <c r="B6" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
+        <v>13</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>561461</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1284079</v>
+      </c>
+      <c r="F6" s="25">
         <v>22.15</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="19"/>
+      <c r="G6" s="25">
+        <v>53572</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>722618</v>
+      </c>
+      <c r="I6" s="7">
+        <v>97793</v>
+      </c>
+      <c r="J6" s="8">
+        <v>59197</v>
+      </c>
+      <c r="K6" s="8">
+        <v>20931</v>
+      </c>
+      <c r="L6" s="8">
+        <v>20968</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4545</v>
+      </c>
+      <c r="N6" s="8">
+        <f>182926+118568</f>
+        <v>301494</v>
+      </c>
+      <c r="O6" s="8">
+        <v>31517</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="2"/>
+        <v>536445</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>56588</v>
+      </c>
+      <c r="R6" s="8">
+        <f>2434*10+3245</f>
+        <v>27585</v>
+      </c>
+      <c r="S6" s="31">
+        <v>100000</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="4"/>
+        <v>186173</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/鳳梨各縣市生產成本.xlsx
+++ b/鳳梨各縣市生產成本.xlsx
@@ -768,15 +768,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.19921875" customWidth="1"/>
     <col min="2" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
     <col min="6" max="6" width="25.69921875" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" customWidth="1"/>
     <col min="8" max="8" width="13.8984375" customWidth="1"/>
@@ -867,7 +868,7 @@
       </c>
       <c r="D2" s="21">
         <f>E2-H2</f>
-        <v>205439</v>
+        <v>72839</v>
       </c>
       <c r="E2" s="22">
         <v>953982</v>
@@ -880,7 +881,7 @@
       </c>
       <c r="H2" s="23">
         <f>P2+U2</f>
-        <v>748543</v>
+        <v>881143</v>
       </c>
       <c r="I2" s="2">
         <v>112910</v>
@@ -916,15 +917,16 @@
         <v>22186</v>
       </c>
       <c r="S2" s="31">
-        <v>100000</v>
+        <f>100000+130000</f>
+        <v>230000</v>
       </c>
       <c r="T2" s="3">
         <f>S2*0.02</f>
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="U2" s="17">
         <f>SUM(Q2:T2)</f>
-        <v>175866</v>
+        <v>308466</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -939,7 +941,7 @@
       </c>
       <c r="D3" s="21">
         <f t="shared" ref="D3:D6" si="0">E3-H3</f>
-        <v>371368</v>
+        <v>238768</v>
       </c>
       <c r="E3" s="24">
         <v>1140673</v>
@@ -952,7 +954,7 @@
       </c>
       <c r="H3" s="23">
         <f t="shared" ref="H3:H6" si="1">P3+U3</f>
-        <v>769305</v>
+        <v>901905</v>
       </c>
       <c r="I3" s="5">
         <v>125182</v>
@@ -988,15 +990,16 @@
         <v>22145</v>
       </c>
       <c r="S3" s="31">
-        <v>100000</v>
+        <f t="shared" ref="S3:S6" si="3">100000+130000</f>
+        <v>230000</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T6" si="3">S3*0.02</f>
-        <v>2000</v>
+        <f t="shared" ref="T3:T6" si="4">S3*0.02</f>
+        <v>4600</v>
       </c>
       <c r="U3" s="17">
-        <f t="shared" ref="U3:U6" si="4">SUM(Q3:T3)</f>
-        <v>179528</v>
+        <f t="shared" ref="U3:U6" si="5">SUM(Q3:T3)</f>
+        <v>312128</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1011,7 +1014,7 @@
       </c>
       <c r="D4" s="21">
         <f t="shared" si="0"/>
-        <v>543186</v>
+        <v>410586</v>
       </c>
       <c r="E4" s="24">
         <v>1148565</v>
@@ -1024,7 +1027,7 @@
       </c>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>605379</v>
+        <v>737979</v>
       </c>
       <c r="I4" s="5">
         <v>111467</v>
@@ -1060,15 +1063,16 @@
         <v>23789</v>
       </c>
       <c r="S4" s="31">
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>230000</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+        <f t="shared" si="4"/>
+        <v>4600</v>
       </c>
       <c r="U4" s="17">
-        <f t="shared" si="4"/>
-        <v>174892</v>
+        <f t="shared" si="5"/>
+        <v>307492</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1083,7 +1087,7 @@
       </c>
       <c r="D5" s="21">
         <f t="shared" si="0"/>
-        <v>375307</v>
+        <v>242707</v>
       </c>
       <c r="E5" s="24">
         <v>1109646</v>
@@ -1096,7 +1100,7 @@
       </c>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>734339</v>
+        <v>866939</v>
       </c>
       <c r="I5" s="5">
         <v>111171</v>
@@ -1132,15 +1136,16 @@
         <v>25103</v>
       </c>
       <c r="S5" s="31">
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>230000</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+        <f t="shared" si="4"/>
+        <v>4600</v>
       </c>
       <c r="U5" s="17">
-        <f t="shared" si="4"/>
-        <v>173320</v>
+        <f t="shared" si="5"/>
+        <v>305920</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1155,7 +1160,7 @@
       </c>
       <c r="D6" s="21">
         <f t="shared" si="0"/>
-        <v>561461</v>
+        <v>428861</v>
       </c>
       <c r="E6" s="25">
         <v>1284079</v>
@@ -1168,7 +1173,7 @@
       </c>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>722618</v>
+        <v>855218</v>
       </c>
       <c r="I6" s="7">
         <v>97793</v>
@@ -1204,15 +1209,16 @@
         <v>27585</v>
       </c>
       <c r="S6" s="31">
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>230000</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
+        <f t="shared" si="4"/>
+        <v>4600</v>
       </c>
       <c r="U6" s="17">
-        <f t="shared" si="4"/>
-        <v>186173</v>
+        <f t="shared" si="5"/>
+        <v>318773</v>
       </c>
     </row>
   </sheetData>
